--- a/M_DiagramaFísico_ArthurFoschiani_Excel.xlsx
+++ b/M_DiagramaFísico_ArthurFoschiani_Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43127523890\Documents\2s2019_sprint_1_bd\OpFlix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43127523890\Documents\2s2019-OpFlix-sprint-1-bd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C65FA94-CA62-4F95-956D-31E6594E7CC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870FCAFB-8A48-4C95-B9A8-845C8E575C15}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{3762D934-0224-465C-836D-667C4EB5D71E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>Usuario</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Administrador</t>
   </si>
   <si>
-    <t>Comum</t>
-  </si>
-  <si>
     <t>Série</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>NomeMidia</t>
   </si>
   <si>
-    <t>Descricao</t>
-  </si>
-  <si>
     <t>Plataforma</t>
   </si>
   <si>
@@ -202,6 +196,27 @@
   </si>
   <si>
     <t>IdLaçamento</t>
+  </si>
+  <si>
+    <t>Sinopse</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>6 Temporadas</t>
+  </si>
+  <si>
+    <t>11 Temporadas</t>
+  </si>
+  <si>
+    <t>2 Volumes</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Cinema</t>
   </si>
 </sst>
 </file>
@@ -397,16 +412,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -431,6 +442,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -749,7 +762,7 @@
   <dimension ref="B1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,6 +775,7 @@
     <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -782,16 +796,16 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="20"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -816,7 +830,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.25">
@@ -824,13 +838,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4" s="4">
         <v>123456</v>
@@ -842,7 +856,7 @@
         <v>123456789</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.25">
@@ -850,13 +864,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" s="4">
         <v>123456</v>
@@ -868,7 +882,7 @@
         <v>987654321</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
@@ -876,13 +890,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="4">
         <v>123456</v>
@@ -894,76 +908,79 @@
         <v>456789123</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11">
+      <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="12">
-        <v>2</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="4">
         <v>3110</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="6">
         <v>35568</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="4">
         <v>789456123</v>
       </c>
-      <c r="I7" s="15" t="s">
-        <v>57</v>
+      <c r="I7" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="16"/>
+      <c r="B8" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="18"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
@@ -974,10 +991,10 @@
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="F10" s="4">
         <v>3</v>
@@ -988,11 +1005,14 @@
       <c r="H10" s="6">
         <v>43729</v>
       </c>
-      <c r="I10" s="17">
-        <v>1</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>47</v>
+      <c r="I10" s="15">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
@@ -1003,10 +1023,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -1017,11 +1037,14 @@
       <c r="H11" s="6">
         <v>37168</v>
       </c>
-      <c r="I11" s="17">
-        <v>2</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>46</v>
+      <c r="I11" s="15">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1032,58 +1055,61 @@
         <v>1</v>
       </c>
       <c r="D12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13">
+        <v>35616</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="12">
-        <v>2</v>
-      </c>
-      <c r="G12" s="12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="14">
-        <v>35616</v>
-      </c>
-      <c r="I12" s="18">
-        <v>1</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="21" t="s">
+      <c r="E13" s="20"/>
+      <c r="F13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="22"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>9</v>
@@ -1092,10 +1118,10 @@
         <v>8</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
@@ -1103,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="9">
         <v>1</v>
@@ -1121,15 +1147,15 @@
         <v>1</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="9">
         <v>1</v>
@@ -1143,19 +1169,19 @@
       <c r="G16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="11">
-        <v>2</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="9">
+        <v>2</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>3</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>28</v>
+      <c r="C17" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D17" s="9">
         <v>2</v>
@@ -1166,32 +1192,38 @@
       <c r="F17" s="11">
         <v>3</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="20"/>
+      <c r="H17" s="11">
+        <v>3</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="18"/>
       <c r="D18" s="4">
         <v>3</v>
       </c>
       <c r="E18" s="4">
         <v>3</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="12">
         <v>3</v>
@@ -1206,12 +1238,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>1</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1222,20 +1254,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>2</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>18</v>
+      <c r="C21" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="11">
         <v>2</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>16</v>
+      <c r="G21" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1246,8 +1278,8 @@
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B8:J8"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B8:K8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
